--- a/course-planner/app/Database/TestDatabase.xlsx
+++ b/course-planner/app/Database/TestDatabase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lupidcorvid\Documents\~UMBC Spring 2025\CMSC 447 (Software Engineering)\cmsc447Project\cmsc447Project\course-planner\CourseDatabase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lupidcorvid\Documents\~UMBC Spring 2025\CMSC 447 (Software Engineering)\cmsc447Project\cmsc447Project\course-planner\app\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2310D46-1776-4DC1-A646-A9BDAA429CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB9922-9BD7-4E30-B2C3-8383CD53E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E1CAD9F-3033-417B-9C93-E81910374D1B}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>CMSC</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>NAME</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>NUMBER</t>
   </si>
 </sst>
 </file>
